--- a/biology/Botanique/Parc_Pierre-Schneiter/Parc_Pierre-Schneiter.xlsx
+++ b/biology/Botanique/Parc_Pierre-Schneiter/Parc_Pierre-Schneiter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Pierre-Schneiter est un jardin de Reims arboré, très fleuri, disposant d'une cascade, d'une roseraie et d'une orangerie.
@@ -514,9 +526,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En avril 1960, la municipalité de Reims, soucieuse de proposer aux Rémois de nouveaux loisirs et de favoriser le tourisme régional, décide la création d’un parc zoologique et d’attractions, boulevard Roederer, dans l’ex-jardin école de la Société d’horticulture[1]. Les travaux sont menés très rapidement, des centaines de mètres carrés de terre sont retournés, on creuse un mini-bassin artificiel. Des cages métalliques sont installées pour abriter Golo, l’ours brun d’Himalaya, pour Mangabby, Drill, Rhénus et Callitrèche, les singes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En avril 1960, la municipalité de Reims, soucieuse de proposer aux Rémois de nouveaux loisirs et de favoriser le tourisme régional, décide la création d’un parc zoologique et d’attractions, boulevard Roederer, dans l’ex-jardin école de la Société d’horticulture. Les travaux sont menés très rapidement, des centaines de mètres carrés de terre sont retournés, on creuse un mini-bassin artificiel. Des cages métalliques sont installées pour abriter Golo, l’ours brun d’Himalaya, pour Mangabby, Drill, Rhénus et Callitrèche, les singes.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque été, une exposition florale à thème est organisée (exemple : « Pleine fleur sur le TVG », 2007 ; « À fleur d'eau », 2008 ).
 </t>
@@ -576,7 +592,9 @@
           <t>Particularités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Pierre-Schneiter abrite :
 un pavillon néoclassique appelé familièrement « Le Trianon », siège de la Société d’horticulture ;
@@ -615,7 +633,9 @@
           <t>Équipements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le parc Pierre-Schneiter comprend :
 une aire de jeux pour enfants,
